--- a/Task Distribution Team 4.xlsx
+++ b/Task Distribution Team 4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sales_application_sprint_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B61096-E72C-44D5-A38E-BD1E2346F3C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23140BA-3A02-46DF-AFA8-8D317855E217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3712E33D-B982-4AFC-8032-9748CD9BCF48}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3712E33D-B982-4AFC-8032-9748CD9BCF48}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -110,18 +110,9 @@
     <t>Angular</t>
   </si>
   <si>
-    <t>Administrator Module</t>
-  </si>
-  <si>
     <t>Shipper,Employee</t>
   </si>
   <si>
-    <t>Orders, Territory</t>
-  </si>
-  <si>
-    <t>Employee Module</t>
-  </si>
-  <si>
     <t>Shipper Module</t>
   </si>
   <si>
@@ -132,6 +123,15 @@
   </si>
   <si>
     <t>Event Grid, Function App</t>
+  </si>
+  <si>
+    <t>Administrator Module,Employee model</t>
+  </si>
+  <si>
+    <t>Territory,Orders</t>
+  </si>
+  <si>
+    <t>Login, Signup</t>
   </si>
 </sst>
 </file>
@@ -577,19 +577,19 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" customWidth="1"/>
-    <col min="3" max="3" width="50.21875" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" customWidth="1"/>
+    <col min="1" max="1" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6328125" customWidth="1"/>
+    <col min="3" max="3" width="50.1796875" customWidth="1"/>
+    <col min="4" max="4" width="18.6328125" customWidth="1"/>
+    <col min="5" max="5" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -606,7 +606,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="7">
         <v>46310116</v>
       </c>
@@ -620,10 +620,10 @@
         <v>23</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>46310075</v>
       </c>
@@ -637,10 +637,10 @@
         <v>21</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>46311335</v>
       </c>
@@ -651,13 +651,13 @@
         <v>8</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>46310101</v>
       </c>
@@ -671,10 +671,10 @@
         <v>21</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>46311337</v>
       </c>
@@ -688,10 +688,10 @@
         <v>22</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>46310127</v>
       </c>
@@ -705,10 +705,10 @@
         <v>23</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>46310126</v>
       </c>
@@ -722,10 +722,10 @@
         <v>21</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>46310120</v>
       </c>
@@ -739,10 +739,10 @@
         <v>22</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
